--- a/output/StructureDefinition-ndh-Endpoint.xlsx
+++ b/output/StructureDefinition-ndh-Endpoint.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-20T20:37:10-04:00</t>
+    <t>2022-10-31T22:12:57-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -591,7 +591,7 @@
     <t>endpoint-usecase</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/ndh/StructureDefinition/endpoint-usecase}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/ndh/StructureDefinition/base-ext-endpoint-usecase}
 </t>
   </si>
   <si>
@@ -608,7 +608,7 @@
     <t>ig-supported</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/ndh/StructureDefinition/igsSupported}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/ndh/StructureDefinition/base-ext-igsSupported}
 </t>
   </si>
   <si>
@@ -621,7 +621,7 @@
     <t>endpoint-type</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/ndh/StructureDefinition/endpointType}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/ndh/StructureDefinition/base-ext-endpointType}
 </t>
   </si>
   <si>
@@ -634,7 +634,7 @@
     <t>secure-exchange-artifacts</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/ndh/StructureDefinition/secureExchangeArtifacts}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/ndh/StructureDefinition/base-ext-secureExchangeArtifacts}
 </t>
   </si>
   <si>
@@ -644,7 +644,7 @@
     <t>trust-framework</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/ndh/StructureDefinition/trustFramework}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/ndh/StructureDefinition/base-ext-trustFramework}
 </t>
   </si>
   <si>
@@ -654,7 +654,7 @@
     <t>dynamic-registration</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/ndh/StructureDefinition/dynamicRegistration}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/ndh/StructureDefinition/base-ext-dynamicRegistration}
 </t>
   </si>
   <si>
@@ -664,7 +664,7 @@
     <t>associated-servers</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/ndh/StructureDefinition/associatedServers}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/ndh/StructureDefinition/base-ext-associatedServers}
 </t>
   </si>
   <si>
@@ -674,7 +674,7 @@
     <t>secured-endpoint</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/ndh/StructureDefinition/secureEndpoint}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/ndh/StructureDefinition/base-ext-secureEndpoint}
 </t>
   </si>
   <si>

--- a/output/StructureDefinition-ndh-Endpoint.xlsx
+++ b/output/StructureDefinition-ndh-Endpoint.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>NDH Endpoint</t>
+    <t>NDH Base Endpoint</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-31T22:12:57-04:00</t>
+    <t>2022-11-04T11:24:16-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
